--- a/ProgressSIRS.xlsx
+++ b/ProgressSIRS.xlsx
@@ -520,7 +520,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -953,8 +953,12 @@
         <f>SUM(G19:G24)/6</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="11" t="s">
         <v>22</v>
+      </c>
+      <c r="K18" s="10">
+        <f>SUM(K19:K24)/6</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M18" s="11" t="s">
         <v>33</v>
@@ -973,6 +977,9 @@
       <c r="J19" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="K19" s="8">
+        <v>0.8</v>
+      </c>
       <c r="N19" s="1" t="s">
         <v>1</v>
       </c>
@@ -993,7 +1000,7 @@
       <c r="J20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="8">
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -1019,7 +1026,7 @@
       <c r="J21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="8">
         <v>1</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -1042,8 +1049,8 @@
       <c r="J22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="6">
-        <v>1</v>
+      <c r="K22" s="8">
+        <v>0.8</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>4</v>
@@ -1065,6 +1072,9 @@
       <c r="J23" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
       <c r="N23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1081,6 +1091,9 @@
       </c>
       <c r="J24" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0.8</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>6</v>

--- a/ProgressSIRS.xlsx
+++ b/ProgressSIRS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
   <si>
     <t>ms log alkes</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>tr history</t>
+  </si>
+  <si>
+    <t>ms asal pasien</t>
   </si>
 </sst>
 </file>
@@ -519,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1221,7 +1224,13 @@
         <f>SUM(G33:G38)/6</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" s="10">
+        <f>SUM(K33:K38)/6</f>
+        <v>0.89999999999999991</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" t="s">
@@ -1233,7 +1242,12 @@
       <c r="G33" s="8">
         <v>0.8</v>
       </c>
-      <c r="J33"/>
+      <c r="J33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="B34" t="s">
@@ -1245,8 +1259,12 @@
       <c r="G34" s="8">
         <v>1</v>
       </c>
-      <c r="J34"/>
-      <c r="K34" s="6"/>
+      <c r="J34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" t="s">
@@ -1258,8 +1276,12 @@
       <c r="G35" s="8">
         <v>1</v>
       </c>
-      <c r="J35"/>
-      <c r="K35" s="6"/>
+      <c r="J35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" t="s">
@@ -1271,8 +1293,12 @@
       <c r="G36" s="8">
         <v>0.8</v>
       </c>
-      <c r="J36"/>
-      <c r="K36" s="6"/>
+      <c r="J36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="B37" t="s">
@@ -1284,7 +1310,12 @@
       <c r="G37" s="8">
         <v>1</v>
       </c>
-      <c r="J37"/>
+      <c r="J37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" t="s">
@@ -1296,7 +1327,12 @@
       <c r="G38" s="8">
         <v>0.8</v>
       </c>
-      <c r="J38"/>
+      <c r="J38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="11" t="s">
